--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -1,63 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudum\OneDrive\Área de Trabalho\EE\Mestrado\3º Trimestre\Confiabilidade\Trabalho1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7171E694-33CB-4B67-B5C7-C8529DB53E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Erros" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="EnumExaust" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="SMC" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Erros" sheetId="1" r:id="rId1"/>
+    <sheet name="EnumExaust" sheetId="2" r:id="rId2"/>
+    <sheet name="SMC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+  <si>
+    <t>Erro por Índice (%)</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>LOLP</t>
+  </si>
+  <si>
+    <t>EPNS (MW)</t>
+  </si>
+  <si>
+    <t>LOLE (h/ano)</t>
+  </si>
+  <si>
+    <t>EENS (MWh/ano)</t>
+  </si>
+  <si>
+    <t>EIR</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -81,10 +126,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -94,7 +139,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -106,137 +153,44 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -524,162 +478,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="16.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="12.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>Erro por Índice (%)</t>
-        </is>
-      </c>
-      <c r="B1" s="8" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="str">
         <f>SMC!A2</f>
-        <v/>
-      </c>
-      <c r="B2" s="9">
+        <v>LOLP</v>
+      </c>
+      <c r="B2" s="6">
         <f>(EnumExaust!B2-SMC!B2)/EnumExaust!B2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4">
+        <v>5.4690359925374226E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="str">
         <f>SMC!A3</f>
-        <v/>
-      </c>
-      <c r="B3" s="9">
+        <v>EPNS (MW)</v>
+      </c>
+      <c r="B3" s="6">
         <f>(EnumExaust!B3-SMC!B3)/EnumExaust!B3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4">
+        <v>8.2552548811766283E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="str">
         <f>SMC!A4</f>
-        <v/>
-      </c>
-      <c r="B4" s="9">
+        <v>LOLE (h/ano)</v>
+      </c>
+      <c r="B4" s="6">
         <f>(EnumExaust!B4-SMC!B4)/EnumExaust!B4</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4">
+        <v>5.4690359925380046E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="str">
         <f>SMC!A5</f>
-        <v/>
-      </c>
-      <c r="B5" s="9">
+        <v>EENS (MWh/ano)</v>
+      </c>
+      <c r="B5" s="6">
         <f>(EnumExaust!B5-SMC!B5)/EnumExaust!B5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4">
+        <v>8.2552548811764843E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="str">
         <f>SMC!A6</f>
-        <v/>
-      </c>
-      <c r="B6" s="9">
+        <v>EIR</v>
+      </c>
+      <c r="B6" s="6">
         <f>(EnumExaust!B6-SMC!B6)/EnumExaust!B6</f>
-        <v/>
+        <v>-1.2732740358930712E-7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="16.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="12" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>LOLP</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>0.02338137604551995</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>EPNS (MW)</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>3.636701731668013</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>LOLE (h/ano)</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.3381376045519951E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3.6367017316680128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
         <v>204.8208541587548</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>EENS (MWh/ano)</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>31857.50716941179</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>EIR</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>0.9999845764374934</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>31857.507169411791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.99998457643749339</v>
       </c>
     </row>
   </sheetData>
@@ -688,74 +620,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>LOLP</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>0.02325350245837195</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="10" t="inlineStr">
-        <is>
-          <t>EPNS (MW)</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>3.606679831946277</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="10" t="inlineStr">
-        <is>
-          <t>LOLE (h/ano)</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>203.7006815353382</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="inlineStr">
-        <is>
-          <t>EENS (MWh/ano)</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>31594.51532784939</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="inlineStr">
-        <is>
-          <t>EIR</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>0.9999847037629331</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.325350245837195E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3.6066798319462769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>203.70068153533819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>31594.515327849389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.99998470376293314</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -1,108 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudum\OneDrive\Área de Trabalho\EE\Mestrado\3º Trimestre\Confiabilidade\Trabalho1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7171E694-33CB-4B67-B5C7-C8529DB53E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Erros" sheetId="1" r:id="rId1"/>
-    <sheet name="EnumExaust" sheetId="2" r:id="rId2"/>
-    <sheet name="SMC" sheetId="3" r:id="rId3"/>
+    <sheet name="Erros" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="SMC" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="EnumExaust" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
-  <si>
-    <t>Erro por Índice (%)</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>LOLP</t>
-  </si>
-  <si>
-    <t>EPNS (MW)</t>
-  </si>
-  <si>
-    <t>LOLE (h/ano)</t>
-  </si>
-  <si>
-    <t>EENS (MWh/ano)</t>
-  </si>
-  <si>
-    <t>EIR</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -153,44 +113,135 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -478,140 +529,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col width="18.7109375" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" style="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="str">
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Erro por Índice (%)</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
         <f>SMC!A2</f>
-        <v>LOLP</v>
+        <v/>
       </c>
       <c r="B2" s="6">
         <f>(EnumExaust!B2-SMC!B2)/EnumExaust!B2</f>
-        <v>5.4690359925374226E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
         <f>SMC!A3</f>
-        <v>EPNS (MW)</v>
+        <v/>
       </c>
       <c r="B3" s="6">
         <f>(EnumExaust!B3-SMC!B3)/EnumExaust!B3</f>
-        <v>8.2552548811766283E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
         <f>SMC!A4</f>
-        <v>LOLE (h/ano)</v>
+        <v/>
       </c>
       <c r="B4" s="6">
         <f>(EnumExaust!B4-SMC!B4)/EnumExaust!B4</f>
-        <v>5.4690359925380046E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
         <f>SMC!A5</f>
-        <v>EENS (MWh/ano)</v>
+        <v/>
       </c>
       <c r="B5" s="6">
         <f>(EnumExaust!B5-SMC!B5)/EnumExaust!B5</f>
-        <v>8.2552548811764843E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
         <f>SMC!A6</f>
-        <v>EIR</v>
+        <v/>
       </c>
       <c r="B6" s="6">
         <f>(EnumExaust!B6-SMC!B6)/EnumExaust!B6</f>
-        <v>-1.2732740358930712E-7</v>
+        <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
+    <col width="18.7109375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13.85546875" customWidth="1" style="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2.3381376045519951E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3.6367017316680128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>204.8208541587548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>31857.507169411791</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.99998457643749339</v>
+    <row r="1">
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>LOLP</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.02325350245837195</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>EPNS (MW)</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>3.606679831946277</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>LOLE (h/ano)</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>203.7006815353382</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>EENS (MWh/ano)</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>31594.51532784939</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>EIR</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.9999847037629331</v>
       </c>
     </row>
   </sheetData>
@@ -620,62 +693,74 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2.325350245837195E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3.6066798319462769</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>203.70068153533819</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>31594.515327849389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.99998470376293314</v>
+    <row r="1">
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>LOLP</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.02338137604551995</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>EPNS (MW)</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>3.636701731668013</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>LOLE (h/ano)</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>204.8208541587548</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>EENS (MWh/ano)</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>31857.50716941179</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>EIR</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.9999845764374934</v>
       </c>
     </row>
   </sheetData>
